--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -5,15 +5,16 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunai/Java/yunaiv.github.io/source/_drafts/Elastic-Job/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18280" yWindow="460" windowWidth="18520" windowHeight="23540" activeTab="1"/>
+    <workbookView xWindow="18280" yWindow="460" windowWidth="18520" windowHeight="23540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="作业数据存储" sheetId="2" r:id="rId2"/>
+    <sheet name="lite 数据存储" sheetId="2" r:id="rId2"/>
+    <sheet name="cloud 数据存储" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
   <si>
     <t>maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,6 +752,50 @@
   </si>
   <si>
     <t>${JOB_INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${JOB_NAME}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储</t>
+    <rPh sb="0" eb="1">
+      <t>cun'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待执行任务的剩余执行次数</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${COUNT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +925,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -911,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1620,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="149" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="149" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1966,4 +2014,66 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
   <si>
     <t>maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,6 +796,41 @@
   </si>
   <si>
     <t>${COUNT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${APP_NAME}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON(CloudAppConfiguration)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云作业APP配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${NAMESPACE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云作业配置</t>
+    <rPh sb="0" eb="1">
+      <t>yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON(CloudJobConfiguration)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,7 +960,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -959,6 +994,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2018,19 +2056,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>82</v>
       </c>
@@ -2047,12 +2087,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
       <c r="C3" t="s">
         <v>116</v>
       </c>
@@ -2069,9 +2113,99 @@
         <v>87</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2094,24 +2094,24 @@
       <c r="B2" t="s">
         <v>60</v>
       </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>

--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
   <si>
     <t>maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,33 @@
   </si>
   <si>
     <t>JSON(CloudJobConfiguration)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TASK_META_INFO}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行中任务的任务编号</t>
+    <rPh sb="0" eb="1">
+      <t>yun'xing'zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian'hao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2059,13 +2086,14 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2091,7 +2119,7 @@
       <c r="A2" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
@@ -2112,6 +2140,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -2202,10 +2243,11 @@
       <c r="A21" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="134">
   <si>
     <t>maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,10 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${JOB_NAME}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,6 +854,18 @@
     <rPh sb="8" eb="9">
       <t>bian'hao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TAKS_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2086,7 +2094,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2109,7 +2117,7 @@
         <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
         <v>84</v>
@@ -2117,22 +2125,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="D2" t="s">
-        <v>117</v>
-      </c>
       <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
         <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
       </c>
       <c r="H2" t="s">
         <v>87</v>
@@ -2142,16 +2150,22 @@
       <c r="A3" s="18"/>
       <c r="B3" s="17"/>
       <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
         <v>129</v>
       </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>130</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2163,16 +2177,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
         <v>122</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
       </c>
       <c r="H5" t="s">
         <v>87</v>
@@ -2182,16 +2196,16 @@
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
         <v>126</v>
       </c>
-      <c r="D6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>127</v>
-      </c>
-      <c r="G6" t="s">
-        <v>128</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>

--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
   <si>
     <t>maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,6 +866,56 @@
   </si>
   <si>
     <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用作业队列</t>
+    <rPh sb="0" eb="1">
+      <t>jin'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'ye</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用应用队列</t>
+    <rPh sb="0" eb="1">
+      <t>jin'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名</t>
+    <rPh sb="0" eb="1">
+      <t>ying'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业名</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'zi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2091,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2127,7 +2177,7 @@
       <c r="A2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C2" t="s">
@@ -2148,7 +2198,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>128</v>
       </c>
@@ -2170,23 +2220,41 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
         <v>87</v>
@@ -2194,18 +2262,20 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -2213,6 +2283,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
@@ -2256,12 +2342,16 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
   <si>
     <t>maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,6 +916,35 @@
     <rPh sb="2" eb="3">
       <t>ming'zi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效转移中任务的任务编号</t>
+    <rPh sb="0" eb="1">
+      <t>shi'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TASK_META_INFO}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2141,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2221,20 +2250,20 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
-        <v>134</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
@@ -2243,18 +2272,20 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
         <v>87</v>
@@ -2262,20 +2293,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -2283,18 +2313,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
         <v>87</v>
@@ -2302,6 +2334,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -2344,14 +2392,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/_drafts/Elastic-Job/elastic-job.xlsx
+++ b/source/_drafts/Elastic-Job/elastic-job.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
   <si>
     <t>maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,6 +945,37 @@
   </si>
   <si>
     <t>${TASK_META_INFO}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderSelector 实现</t>
+    <rPh sb="15" eb="16">
+      <t>shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framework_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesos FrameworkId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${FRAMEWORK_ID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2170,15 +2201,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
@@ -2186,9 +2218,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="17" t="s">
         <v>82</v>
       </c>
+      <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -2353,56 +2386,46 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A23"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A10"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
